--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_12_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_12_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52219.87462788761</v>
+        <v>10391755.05094962</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>52219.87462788761</v>
+        <v>10391755.05094962</v>
       </c>
     </row>
     <row r="9">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1035769511.15243</v>
+        <v>42538729.55096076</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8744.411626212179</v>
+        <v>963839.2847970198</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16763.54213492227</v>
+        <v>1813918.787021521</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>24782.67264363236</v>
+        <v>2663998.289246023</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>33114.7360117647</v>
+        <v>3527126.402379616</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>41381.22847080614</v>
+        <v>4377205.904604118</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>49647.72092984757</v>
+        <v>5227285.40682862</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>57914.213388889</v>
+        <v>6077364.909053118</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>66180.70584793043</v>
+        <v>6927444.411277615</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>74447.19830697187</v>
+        <v>7777523.913502114</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>82713.69076601326</v>
+        <v>8627603.415726611</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>90980.1832250547</v>
+        <v>9477682.917951114</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>98956.8833205416</v>
+        <v>10314713.80926653</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>106999.1543251194</v>
+        <v>11164793.31149104</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>115041.4253296972</v>
+        <v>12014872.81371555</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>123083.6963342751</v>
+        <v>12864952.31594005</v>
       </c>
     </row>
   </sheetData>
